--- a/data/4/20230604-a1r-nc-session4-c_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-c_transcript.xlsx
@@ -1,432 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6528C4-419D-CA4F-B484-DCDE5F8C0EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:52"</t>
-  </si>
-  <si>
-    <t>Hello. Welcome back. So I think this is probably one of the most important things that we'll talk about in this entire thing because our elections have been influenced by, you know, dark money. And the thing about citizens united that really, really freaks me out is that these major corporations can spend as much money as they want on our elections and we don't know who the shareholders are, we don't know who owns them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, they are influenced by Foreign entities and that loophole be really hard to close.</t>
-  </si>
-  <si>
-    <t>"10:31"</t>
-  </si>
-  <si>
-    <t>Yes close that loophole on foreign entities and no do not raise donations. I don't care how much media cost them. If everybody spending the same amount, then they all get the same. A lot of time on Media or amount to spend on media and they can make better use of it, maybe.</t>
-  </si>
-  <si>
-    <t>"10:52"</t>
-  </si>
-  <si>
-    <t>Maybe one thing people are worried about the cost for commercials you have a, you Institute a flat rate of every, you know, politician X doesn't matter what party whoever's running pays, the same amount for a commercial, and they're always going to be shown say during new segments during prime time when they'll reach the most people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I wouldn't raise the amount, people can contribute because the more money you have, the more you contribute, the more your voice gets heard versus somebody else and you do need to close the loopholes to stop foreign governments, foreign Agents from contributing money to influence the elections.</t>
-  </si>
-  <si>
-    <t>"11:35"</t>
-  </si>
-  <si>
-    <t>Oh sorry, it looks like my camera's not on. I don't know why. Hopefully I would ever be near me. But yeah, I don't think that there should be influence from foreign entities at all. Actually, the interesting thing to me is that most people now use social media for everything. So a lot of people don't do a lot of the traditional sources. Like I'll see a ton of waste wasted money on Mike.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Like side of the road campaigning and I'm like, how many people just drive past that to know what I mean?</t>
-  </si>
-  <si>
-    <t>"12:12"</t>
-  </si>
-  <si>
-    <t>Agree on that. For sure I'm jumping tracks to the compulsory part whether or not it should be compulsory. You know I don't I don't think so at all. I mean it's a right but I don't I think even a small fine for that and I get why it should. But there's got to be another way to attack that to increase the interest to increase the voter turnout in that group, that middle group, that may not be showing up.</t>
-  </si>
-  <si>
-    <t>"12:42"</t>
-  </si>
-  <si>
-    <t>Yeah, I absolutely believe campaign daughter should be revealed just for transparency and close loopholes for other countries. I mean, that Russia funneled, 23 million through the NRA into the Trump Campaign, which is ridiculous. Other countries should have nothing to do with our elections.</t>
-  </si>
-  <si>
-    <t>"13:02"</t>
-  </si>
-  <si>
-    <t>I think ultimately our best system is going to be a publicly-funded election which I know will increase the cost of electrical increase the amount we pay in taxes for that. I think the long-term benefit outweighs the short term cost.</t>
-  </si>
-  <si>
-    <t>"13:20"</t>
-  </si>
-  <si>
-    <t>I would not want it publicly funded because then you'll get too many people who would have no chance of winning just because they wouldn't have the support they try and jump in. So you have to figure out some way to initially, weed out the people who shouldn't be running in the first place. And we all know the government can't live by a budget or set a budget and all they want to keep doing is taking our hard-earned money to throw away on other things.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Things and I really don't think they have the ability government in general. Has the ability to run that kind of system and any Fairway. And anyway, that would be cost effective and transparent.</t>
-  </si>
-  <si>
-    <t>"15:54"</t>
-  </si>
-  <si>
-    <t>I would say I'm in favor of disclosure.</t>
-  </si>
-  <si>
-    <t>"15:58"</t>
-  </si>
-  <si>
-    <t>I think transparency is absolutely important right now. Our politicians spend a substantial amount of their time and day doing nothing but raising contributions so that they can run for office again. And that is another reason why a lot of our processes are gummed up. So I don't know if the answer is democracy, vouchers or matching small contributions, but I do know that the big huge donations that they get from</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know these private entities, we need to know who's giving to those entities. It should be completely transparent.</t>
-  </si>
-  <si>
-    <t>"16:37"</t>
-  </si>
-  <si>
-    <t>I agree, it should be completely transparent. And if any pack goes to make a commercial for any politician, the entire, the entirety of that packs donor list should be available. I think, if you donate a dollar to a campaign, we should know who we should know who you are.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That way you can hide all of the small, the small that way you get rid of all the small donors that turn out to be one person with multiple names or a group of people trying to undermine something. And as I always said, I don't want any public money from the government in it because I don't trust the government to do anything, right? So how could they do this, right?</t>
-  </si>
-  <si>
-    <t>"17:19"</t>
-  </si>
-  <si>
-    <t>I think full disclosure and transparency is absolutely important and should be followed as far as this proposal of democracy vouchers. So if they're going to send that to all eligible voters, would they not also include their voter registration cards in that. Maybe it's just something to think about and it would I think in get more people to at least if they want to participate to participate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm open on.</t>
-  </si>
-  <si>
-    <t>"17:51"</t>
-  </si>
-  <si>
-    <t>Yeah. I'm also very in favor of disclosures and making sure that people know who's donating to these political campaigns. I'm intrigued by the idea of democracy vouchers. I've not heard of anything like that before. I think it would be nice to allow people who may not have disposable income to donate to political campaigns that they believe in and have their like voice heard. But I'm skeptical of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The idea that that would do a lot compared to the like, huge donations that some of these people are seeing from like, larger entities.</t>
-  </si>
-  <si>
-    <t>"18:32"</t>
-  </si>
-  <si>
-    <t>I agree with what I said. I would also say, I love Jim's idea of, including the voter ID cards, or what have you with those vouchers? I think that'd be a great way to cheaply and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cheaply. Get those out to everyone.</t>
-  </si>
-  <si>
-    <t>"18:52"</t>
-  </si>
-  <si>
-    <t>Yes, the voucher idea is great but with all of that limitations, I mean the packs are just they're insane. You know on both sides.</t>
-  </si>
-  <si>
-    <t>"19:55"</t>
-  </si>
-  <si>
-    <t>I definitely think that the gerrymandering situation, the United States has gotten a little bit out of control here and there and I think there ought to be an independent commission, and if there's any issue, then it could go be kicked up for appeal or review, but I would like to see that.</t>
-  </si>
-  <si>
-    <t>"20:15"</t>
-  </si>
-  <si>
-    <t>100%. Did I think you do?</t>
-  </si>
-  <si>
-    <t>"20:18"</t>
-  </si>
-  <si>
-    <t>I completely agree. There needs to be a impartial group that can draw the lines to make it fair. So you don't have one District. That's that leans. Horribly one, way or horribly another way. It needs to represent the people living in that District, not just a small group of them.</t>
-  </si>
-  <si>
-    <t>"20:38"</t>
-  </si>
-  <si>
-    <t>Yeah, I think independent commissions is probably the best way to go about that. I'm not sure how that can be instituted in all states. Since we are incredibly independent about how we do our elections, but I do think when we kick those up, like if we draw a map and it has to be reviewed by somebody, perhaps it should be reviewed by the state court system, like this it, whatever the score system is the state supreme court would be the equivalent of that, but I don't think it should be done by legislators who are politically motivated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's not giving us a good.</t>
-  </si>
-  <si>
-    <t>"21:10"</t>
-  </si>
-  <si>
-    <t>I totally agree of the people are supposed to pick their elected officials. And in some states, the elected officials are picking their voters which is way wrong it. So I totally agree with a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> totally agree with them nonpartisan Commission.</t>
-  </si>
-  <si>
-    <t>"21:28"</t>
-  </si>
-  <si>
-    <t>I think the only challenge would be finding an independent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nonpartisan party to do it right? Like so that's going to be they're going to have to have things in place that will actually Institute this properly so that's going to be the real catch to this.</t>
-  </si>
-  <si>
-    <t>"21:46"</t>
-  </si>
-  <si>
-    <t>Very good point, Virginia.</t>
-  </si>
-  <si>
-    <t>"21:51"</t>
-  </si>
-  <si>
-    <t>What's up next?</t>
-  </si>
-  <si>
-    <t>"23:06"</t>
-  </si>
-  <si>
-    <t>Okay. So I am not in favor of fines and I'm not in favor of lowering the age. Apparently brain development. I mean, it's still, it's still going up into the like, mid-20s slip, just get real. Let's see. I think making it easier for independent candidates as fine. And actually I'm not opposed to a federal, you know, day to do this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I personally love to go early voting because it's just a way easier, but that's just me.</t>
-  </si>
-  <si>
-    <t>"23:41"</t>
-  </si>
-  <si>
-    <t>So I think making voting an obligation is would be a huge mistake, because a lot of people just don't have the time, even if they want to do it, because it isn't a Federal holiday right now. I think it wouldn't hurt for it to be third party, candidates on the ballot, maybe not a bad idea. I hadn't really thought about 16 year olds being allowed to vote specifically in School Board elections. That actually might give them</t>
-  </si>
-  <si>
-    <t>A little bit of knowledge on the inner workings of how elections work before they're 18 and voting and Statewide and national elections, and it impacts them on a daily basis. That being said, I sort of agree with Virginia about brain development, I am but it might not</t>
-  </si>
-  <si>
-    <t>"24:26"</t>
-  </si>
-  <si>
-    <t>I agree with the previous two speakers about the not making it compulsory, or finding them. I think making a Federal holiday would be very beneficial. And I think 16 year olds should be allowed to vote. Honestly, at the very least, in School Board elections. I agree, with Sarah. You know, that would really help, you know, along with Civics increases this classes and all of that. I think that would help.</t>
-  </si>
-  <si>
-    <t>Educate them on voting and voting process and get them more engaged. But I frankly also think they should be allowed to vote in elections. Anyway. I think they deserve a right and I wanted to vote when I was 16 and I was frustrated I couldn't.</t>
-  </si>
-  <si>
-    <t>"25:09"</t>
-  </si>
-  <si>
-    <t>Okay, here I go. I think of these for the only one that I would possibly go along with would be the first one, as far as 16 year olds in school boards. Let them vote for their class president. I think that's enough to vote for, at that age, kind of like the brain development stuff. And all right, that's about it. I'm cuckoo and</t>
-  </si>
-  <si>
-    <t>"25:31"</t>
-  </si>
-  <si>
-    <t>Yeah, I like the first two. A lot. The wait, no, not the first you, I like the third party candidates thing, I think that's always a good thing. Get more ideas into stuff. I like the Federal Election Day compulsory voting. I really don't like especially if we don't have these other reforms first, because then we're just saying, hey we're it's hard for you to do this and we're going to make you pay even though it's</t>
-  </si>
-  <si>
-    <t>Ready. Hard also. I like the idea of 16 year olds voting in School Board elections, because I think you could tie it into a civics class to make it like a more Hands-On, education of how elections work and give them experience in actually being a voter. And I like that idea.</t>
-  </si>
-  <si>
-    <t>"26:16"</t>
-  </si>
-  <si>
-    <t>Well, I definitely believe a national holiday would be great for election day. I think that's a great idea. I'm skeptical about 60 year olds voting for school board members, kind of skeptical the criteria. They they would use and no definitely no fines.</t>
-  </si>
-  <si>
-    <t>"26:35"</t>
-  </si>
-  <si>
-    <t>Mr. Somewhat off the cuff but I don't know about you all. But sometimes like I've been like, oh my gosh. I'm going to be like nowhere near my voting poll this year, and it sucks. Like I just think about that and I know that, you know, people can think to do the mail in and advanced, but like sometimes you just don't have that option in life, just throwing that out as a random thing to talk.</t>
-  </si>
-  <si>
-    <t>"27:02"</t>
-  </si>
-  <si>
-    <t>Yeah, I wouldn't want there to be any kind of final requirement to vote if you want to vote your vote, if you don't, you don't, we should have third-party candidates or other candidates on the ballots, just besides the two main parties, because we've learned this two-party system has just made everything worse and worse over the years, and it doesn't do us any good.</t>
-  </si>
-  <si>
-    <t>I don't I when I was 16 I wouldn't have trusted myself to vote and I don't trust the kids that are 16 today to vote to actually understand what it what that means and what it entails and the ramifications of their decisions because it's 16, you don't think of what's going to happen when you're 25 or 40 or 80 so that's too much to try.</t>
-  </si>
-  <si>
-    <t>"27:47"</t>
-  </si>
-  <si>
-    <t>So I had a couple thoughts about the 16 year old registration thing where I live there was a school board that was elected not too far from me in a more rural area that started, you know, developing policies that were Banning certain books and they they were basically doing things that a lot of parents objected to and the kids are the ones who have to deal with the consequences of those sections. So while I think without</t>
-  </si>
-  <si>
-    <t>Without tying it into an education component, without tying it, into a civics class, it would be a bad idea but if you tie it into a civics class it, maybe it wouldn't. And on the flipside, an 80 year old person, voting is Gilbert elections, isn't going to see the outcome of that. They're not going to be there.</t>
-  </si>
-  <si>
-    <t>"28:32"</t>
-  </si>
-  <si>
-    <t>I don't know how I got put up. No, I agree that you know somebody who's 80 wouldn't be there day to day, but I just don't trust a 16 year old with that level of responsibility and understanding what is required to look forward in life. They don't have that ability at all. I've 2016 rolls and they don't</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It might just be a school board election but they don't understand what the school district needs, what other students need and they're not parents. So you could have a parent, who's got a kid who's in high school? And a kid who was in grade school and it's just not a good idea. It's a very dangerous precedent and the road to hell is paved with good intentions.</t>
-  </si>
-  <si>
-    <t>"28:48"</t>
-  </si>
-  <si>
-    <t>but,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> my question now is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> my question is, though, what kind of responsibilities were talking about? We're just talking about a school board. Election, it's not a national election, it's not senator.</t>
-  </si>
-  <si>
-    <t>"29:28"</t>
-  </si>
-  <si>
-    <t>Yeah I agree with that as well that they that is the case intentions, right? But again it would need they would need to be the education would need to be in place. You know, what does the school board even do? You know, are they just out there Banning books and know, you know, your parents are going to be very interested in what the millage rate, you know, if they're sitting millage rate and asking for money that they can't Define what they're going to do with. So maybe this is you know you can't put it all back on the parents but you know where then we Circle all the way back around to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What education every time.</t>
-  </si>
-  <si>
-    <t>"30:01"</t>
-  </si>
-  <si>
-    <t>I'm just going to circle back to not allowing them to vote in a school board election. If everybody's feel strong about it as a civics lesson, then hold a mock election for the school board with the students and make that part of the educational process.</t>
-  </si>
-  <si>
-    <t>"34:31"</t>
-  </si>
-  <si>
-    <t>Great question.</t>
-  </si>
-  <si>
-    <t>"34:35"</t>
-  </si>
-  <si>
-    <t>Agreed.</t>
-  </si>
-  <si>
-    <t>"34:39"</t>
-  </si>
-  <si>
-    <t>Anybody want to add anything or make changes?</t>
-  </si>
-  <si>
-    <t>"35:09"</t>
-  </si>
-  <si>
-    <t>Another great question.</t>
-  </si>
-  <si>
-    <t>"35:39"</t>
-  </si>
-  <si>
-    <t>I would just say this is a yes or no kind of question again that if if we inserted the how like, okay, how would the voter IDs be issued? Maybe you can put how before</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, just to kind of get more information.</t>
-  </si>
-  <si>
-    <t>"35:59"</t>
-  </si>
-  <si>
-    <t>Or change the word would to could.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -502,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -611,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1693,939 +1302,1148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:52"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"9:52"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hello. Welcome back. So I think this is probably one of the most important things that we'll talk about in this entire thing because our elections have been influenced by, you know, dark money. And the thing about citizens united that really, really freaks me out is that these major corporations can spend as much money as they want on our elections and we don't know who the shareholders are, we don't know who owns them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"9:52"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, they are influenced by Foreign entities and that loophole be really hard to close.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:31"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"10:31"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Yes close that loophole on foreign entities and no do not raise donations. I don't care how much media cost them. If everybody spending the same amount, then they all get the same. A lot of time on Media or amount to spend on media and they can make better use of it, maybe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"10:52"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Maybe one thing people are worried about the cost for commercials you have a, you Institute a flat rate of every, you know, politician X doesn't matter what party whoever's running pays, the same amount for a commercial, and they're always going to be shown say during new segments during prime time when they'll reach the most people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"10:52"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I wouldn't raise the amount, people can contribute because the more money you have, the more you contribute, the more your voice gets heard versus somebody else and you do need to close the loopholes to stop foreign governments, foreign Agents from contributing money to influence the elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:35"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Oh sorry, it looks like my camera's not on. I don't know why. Hopefully I would ever be near me. But yeah, I don't think that there should be influence from foreign entities at all. Actually, the interesting thing to me is that most people now use social media for everything. So a lot of people don't do a lot of the traditional sources. Like I'll see a ton of waste wasted money on Mike.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"11:35"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Like side of the road campaigning and I'm like, how many people just drive past that to know what I mean?</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"12:12"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Agree on that. For sure I'm jumping tracks to the compulsory part whether or not it should be compulsory. You know I don't I don't think so at all. I mean it's a right but I don't I think even a small fine for that and I get why it should. But there's got to be another way to attack that to increase the interest to increase the voter turnout in that group, that middle group, that may not be showing up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"12:42"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I absolutely believe campaign daughter should be revealed just for transparency and close loopholes for other countries. I mean, that Russia funneled, 23 million through the NRA into the Trump Campaign, which is ridiculous. Other countries should have nothing to do with our elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"13:02"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I think ultimately our best system is going to be a publicly-funded election which I know will increase the cost of electrical increase the amount we pay in taxes for that. I think the long-term benefit outweighs the short term cost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"13:20"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>I would not want it publicly funded because then you'll get too many people who would have no chance of winning just because they wouldn't have the support they try and jump in. So you have to figure out some way to initially, weed out the people who shouldn't be running in the first place. And we all know the government can't live by a budget or set a budget and all they want to keep doing is taking our hard-earned money to throw away on other things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"13:20"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Things and I really don't think they have the ability government in general. Has the ability to run that kind of system and any Fairway. And anyway, that would be cost effective and transparent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:54"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I would say I'm in favor of disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:58"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I think transparency is absolutely important right now. Our politicians spend a substantial amount of their time and day doing nothing but raising contributions so that they can run for office again. And that is another reason why a lot of our processes are gummed up. So I don't know if the answer is democracy, vouchers or matching small contributions, but I do know that the big huge donations that they get from</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"15:58"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know these private entities, we need to know who's giving to those entities. It should be completely transparent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"16:37"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:37"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I agree, it should be completely transparent. And if any pack goes to make a commercial for any politician, the entire, the entirety of that packs donor list should be available. I think, if you donate a dollar to a campaign, we should know who we should know who you are.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"16:37"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That way you can hide all of the small, the small that way you get rid of all the small donors that turn out to be one person with multiple names or a group of people trying to undermine something. And as I always said, I don't want any public money from the government in it because I don't trust the government to do anything, right? So how could they do this, right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48264</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"17:19"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I think full disclosure and transparency is absolutely important and should be followed as far as this proposal of democracy vouchers. So if they're going to send that to all eligible voters, would they not also include their voter registration cards in that. Maybe it's just something to think about and it would I think in get more people to at least if they want to participate to participate,</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48264</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"17:19"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I'm open on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>10663</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"17:51"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>10663</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"17:51"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Yeah. I'm also very in favor of disclosures and making sure that people know who's donating to these political campaigns. I'm intrigued by the idea of democracy vouchers. I've not heard of anything like that before. I think it would be nice to allow people who may not have disposable income to donate to political campaigns that they believe in and have their like voice heard. But I'm skeptical of</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>10663</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"17:51"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The idea that that would do a lot compared to the like, huge donations that some of these people are seeing from like, larger entities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48397</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"18:32"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48397</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"18:32"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I agree with what I said. I would also say, I love Jim's idea of, including the voter ID cards, or what have you with those vouchers? I think that'd be a great way to cheaply and</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48397</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"18:32"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cheaply. Get those out to everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"18:52"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Yes, the voucher idea is great but with all of that limitations, I mean the packs are just they're insane. You know on both sides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48337</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"19:55"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I definitely think that the gerrymandering situation, the United States has gotten a little bit out of control here and there and I think there ought to be an independent commission, and if there's any issue, then it could go be kicked up for appeal or review, but I would like to see that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"20:15"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>100%. Did I think you do?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"20:18"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"20:18"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I completely agree. There needs to be a impartial group that can draw the lines to make it fair. So you don't have one District. That's that leans. Horribly one, way or horribly another way. It needs to represent the people living in that District, not just a small group of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"20:38"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I think independent commissions is probably the best way to go about that. I'm not sure how that can be instituted in all states. Since we are incredibly independent about how we do our elections, but I do think when we kick those up, like if we draw a map and it has to be reviewed by somebody, perhaps it should be reviewed by the state court system, like this it, whatever the score system is the state supreme court would be the equivalent of that, but I don't think it should be done by legislators who are politically motivated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"20:38"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's not giving us a good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"21:10"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I totally agree of the people are supposed to pick their elected officials. And in some states, the elected officials are picking their voters which is way wrong it. So I totally agree with a</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"21:10"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> totally agree with them nonpartisan Commission.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"21:28"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>I think the only challenge would be finding an independent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"21:28"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nonpartisan party to do it right? Like so that's going to be they're going to have to have things in place that will actually Institute this properly so that's going to be the real catch to this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48383</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"21:46"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Very good point, Virginia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"21:51"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>What's up next?</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"21:51"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Okay. So I am not in favor of fines and I'm not in favor of lowering the age. Apparently brain development. I mean, it's still, it's still going up into the like, mid-20s slip, just get real. Let's see. I think making it easier for independent candidates as fine. And actually I'm not opposed to a federal, you know, day to do this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I personally love to go early voting because it's just a way easier, but that's just me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"23:41"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>So I think making voting an obligation is would be a huge mistake, because a lot of people just don't have the time, even if they want to do it, because it isn't a Federal holiday right now. I think it wouldn't hurt for it to be third party, candidates on the ballot, maybe not a bad idea. I hadn't really thought about 16 year olds being allowed to vote specifically in School Board elections. That actually might give them</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"23:41"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>A little bit of knowledge on the inner workings of how elections work before they're 18 and voting and Statewide and national elections, and it impacts them on a daily basis. That being said, I sort of agree with Virginia about brain development, I am but it might not</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48397</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"24:26"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>I agree with the previous two speakers about the not making it compulsory, or finding them. I think making a Federal holiday would be very beneficial. And I think 16 year olds should be allowed to vote. Honestly, at the very least, in School Board elections. I agree, with Sarah. You know, that would really help, you know, along with Civics increases this classes and all of that. I think that would help.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48397</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"24:26"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Educate them on voting and voting process and get them more engaged. But I frankly also think they should be allowed to vote in elections. Anyway. I think they deserve a right and I wanted to vote when I was 16 and I was frustrated I couldn't.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48264</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"25:09"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Okay, here I go. I think of these for the only one that I would possibly go along with would be the first one, as far as 16 year olds in school boards. Let them vote for their class president. I think that's enough to vote for, at that age, kind of like the brain development stuff. And all right, that's about it. I'm cuckoo and</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>10663</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"25:31"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I like the first two. A lot. The wait, no, not the first you, I like the third party candidates thing, I think that's always a good thing. Get more ideas into stuff. I like the Federal Election Day compulsory voting. I really don't like especially if we don't have these other reforms first, because then we're just saying, hey we're it's hard for you to do this and we're going to make you pay even though it's</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>10663</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"25:31"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Ready. Hard also. I like the idea of 16 year olds voting in School Board elections, because I think you could tie it into a civics class to make it like a more Hands-On, education of how elections work and give them experience in actually being a voter. And I like that idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48433</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"26:16"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Well, I definitely believe a national holiday would be great for election day. I think that's a great idea. I'm skeptical about 60 year olds voting for school board members, kind of skeptical the criteria. They they would use and no definitely no fines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"26:35"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Mr. Somewhat off the cuff but I don't know about you all. But sometimes like I've been like, oh my gosh. I'm going to be like nowhere near my voting poll this year, and it sucks. Like I just think about that and I know that, you know, people can think to do the mail in and advanced, but like sometimes you just don't have that option in life, just throwing that out as a random thing to talk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"27:02"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I wouldn't want there to be any kind of final requirement to vote if you want to vote your vote, if you don't, you don't, we should have third-party candidates or other candidates on the ballots, just besides the two main parties, because we've learned this two-party system has just made everything worse and worse over the years, and it doesn't do us any good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"27:02"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>I don't I when I was 16 I wouldn't have trusted myself to vote and I don't trust the kids that are 16 today to vote to actually understand what it what that means and what it entails and the ramifications of their decisions because it's 16, you don't think of what's going to happen when you're 25 or 40 or 80 so that's too much to try.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"27:47"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>So I had a couple thoughts about the 16 year old registration thing where I live there was a school board that was elected not too far from me in a more rural area that started, you know, developing policies that were Banning certain books and they they were basically doing things that a lot of parents objected to and the kids are the ones who have to deal with the consequences of those sections. So while I think without</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"27:47"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Without tying it into an education component, without tying it, into a civics class, it would be a bad idea but if you tie it into a civics class it, maybe it wouldn't. And on the flipside, an 80 year old person, voting is Gilbert elections, isn't going to see the outcome of that. They're not going to be there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"28:32"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"28:32"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>I don't know how I got put up. No, I agree that you know somebody who's 80 wouldn't be there day to day, but I just don't trust a 16 year old with that level of responsibility and understanding what is required to look forward in life. They don't have that ability at all. I've 2016 rolls and they don't</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"28:32"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48436</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"28:32"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It might just be a school board election but they don't understand what the school district needs, what other students need and they're not parents. So you could have a parent, who's got a kid who's in high school? And a kid who was in grade school and it's just not a good idea. It's a very dangerous precedent and the road to hell is paved with good intentions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"28:48"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"28:48"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>but,</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"28:48"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> my question now is</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"28:48"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> my question is, though, what kind of responsibilities were talking about? We're just talking about a school board. Election, it's not a national election, it's not senator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"29:28"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Yeah I agree with that as well that they that is the case intentions, right? But again it would need they would need to be the education would need to be in place. You know, what does the school board even do? You know, are they just out there Banning books and know, you know, your parents are going to be very interested in what the millage rate, you know, if they're sitting millage rate and asking for money that they can't Define what they're going to do with. So maybe this is you know you can't put it all back on the parents but you know where then we Circle all the way back around to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"29:28"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What education every time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>48264</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"30:01"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n"/>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="10">
+      <c r="A70" s="3" t="n">
         <v>48264</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"30:01"</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>I'm just going to circle back to not allowing them to vote in a school board election. If everybody's feel strong about it as a civics lesson, then hold a mock election for the school board with the students and make that part of the educational process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="10">
+      <c r="A71" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"34:31"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Great question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="10">
+      <c r="A72" s="3" t="n">
         <v>48507</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"34:35"</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Agreed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="10">
+      <c r="A73" s="3" t="n">
         <v>48346</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"34:39"</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Anybody want to add anything or make changes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="10">
+      <c r="A74" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"35:09"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Another great question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="10">
+      <c r="A75" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>"35:39"</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>I would just say this is a yes or no kind of question again that if if we inserted the how like, okay, how would the voter IDs be issued? Maybe you can put how before</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="10">
+      <c r="A76" s="3" t="n">
         <v>10544</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>"35:39"</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, just to kind of get more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="10">
+      <c r="A77" s="3" t="n">
         <v>48337</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>107</v>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>"35:59"</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Or change the word would to could.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADB20F3-6C10-0740-B2E6-ABBFE459B353}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>